--- a/data/s/25-05-2024.xlsx
+++ b/data/s/25-05-2024.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/s/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8B617-C23D-A845-8375-D922AF2F1724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio Details" r:id="rId3" sheetId="1"/>
-    <sheet name="Transaction Details" r:id="rId4" sheetId="2"/>
+    <sheet name="Portfolio Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Transaction Details" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -414,50 +422,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D9D9D9"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,724 +481,1053 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="29.296875" customWidth="true"/>
-    <col min="3" max="3" width="21.484375" customWidth="true"/>
-    <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="5" max="5" width="17.5" customWidth="true"/>
-    <col min="6" max="6" width="16.40625" customWidth="true"/>
-    <col min="7" max="7" width="9.84375" customWidth="true"/>
-    <col min="8" max="8" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="C9" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="2">
-        <v>1.386209382E7</v>
-      </c>
-      <c r="B10" t="n" s="2">
-        <v>1.69468003E7</v>
-      </c>
-      <c r="C10" t="n" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>13862093.82</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16946800.300000001</v>
+      </c>
+      <c r="C10" s="2">
         <v>3084706.48</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="1">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="1">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="1">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="1">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s" s="1">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s" s="1">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="24.4140625" customWidth="true"/>
-    <col min="3" max="3" width="10.6640625" customWidth="true"/>
-    <col min="4" max="4" width="7.3828125" customWidth="true"/>
-    <col min="5" max="5" width="9.0234375" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="4" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>